--- a/Excel文件/NPC基础扩展表.xlsx
+++ b/Excel文件/NPC基础扩展表.xlsx
@@ -1040,13 +1040,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="22.875" customWidth="1"/>
   </cols>
@@ -1064,7 +1064,7 @@
         <v>100001</v>
       </c>
       <c r="B2">
-        <v>80001</v>
+        <v>50010</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1072,7 +1072,15 @@
         <v>100036</v>
       </c>
       <c r="B3">
-        <v>80036</v>
+        <v>50360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>100092</v>
+      </c>
+      <c r="B4">
+        <v>50920</v>
       </c>
     </row>
   </sheetData>

--- a/Excel文件/NPC基础扩展表.xlsx
+++ b/Excel文件/NPC基础扩展表.xlsx
@@ -255,12 +255,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1040,13 +1040,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="22.875" customWidth="1"/>
   </cols>
@@ -1069,17 +1069,25 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>100036</v>
+        <v>100016</v>
       </c>
       <c r="B3">
-        <v>50360</v>
+        <v>50160</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
+        <v>100036</v>
+      </c>
+      <c r="B4">
+        <v>50360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>100092</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>50920</v>
       </c>
     </row>
